--- a/data/unified_cuentas_tributarias.xlsx
+++ b/data/unified_cuentas_tributarias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="174">
   <si>
     <t>Impuesto</t>
   </si>
@@ -64,6 +64,9 @@
     <t>217 - SICORE-IMPTO.A LAS GANANCIAS</t>
   </si>
   <si>
+    <t>787 - RET ART 79 LEY GCIAS INC A,ByC</t>
+  </si>
+  <si>
     <t>19 - Declaración Jurada                                                  19 - Declaración Jurada</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>23/05/2025</t>
   </si>
   <si>
+    <t>25/06/2025</t>
+  </si>
+  <si>
     <t>12/06/2024</t>
   </si>
   <si>
@@ -145,10 +151,7 @@
     <t>12/03/2025</t>
   </si>
   <si>
-    <t>13/03/2025</t>
-  </si>
-  <si>
-    <t>14/04/2025</t>
+    <t>11/04/2025</t>
   </si>
   <si>
     <t>13/05/2025</t>
@@ -175,6 +178,9 @@
     <t>15/12/2025</t>
   </si>
   <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
     <t>16/07/2024</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
     <t>20/02/2025</t>
   </si>
   <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
     <t>09/01/2025</t>
   </si>
   <si>
@@ -217,6 +226,9 @@
     <t>10/03/2025</t>
   </si>
   <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
     <t>29/10/2012</t>
   </si>
   <si>
@@ -367,78 +379,66 @@
     <t>01/01/2020</t>
   </si>
   <si>
-    <t>19/03/2025</t>
-  </si>
-  <si>
-    <t>22/04/2025</t>
-  </si>
-  <si>
     <t>20/05/2025</t>
   </si>
   <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
     <t>08/07/2015</t>
   </si>
   <si>
     <t>09/12/2024</t>
   </si>
   <si>
-    <t>23/04/2025</t>
-  </si>
-  <si>
     <t>21/05/2025</t>
   </si>
   <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
     <t>22/05/2025</t>
   </si>
   <si>
-    <t>24/04/2025</t>
+    <t>11/06/2024</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>17/02/2025</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t>16/05/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>24/01/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>24/04/2024</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>25/03/2025</t>
   </si>
   <si>
     <t>25/04/2025</t>
   </si>
   <si>
-    <t>15/01/2025</t>
-  </si>
-  <si>
-    <t>17/02/2025</t>
-  </si>
-  <si>
-    <t>17/03/2025</t>
-  </si>
-  <si>
-    <t>24/02/2025</t>
-  </si>
-  <si>
-    <t>22/10/2019</t>
-  </si>
-  <si>
-    <t>20/08/2021</t>
-  </si>
-  <si>
-    <t>16/05/2024</t>
-  </si>
-  <si>
-    <t>16/02/2024</t>
-  </si>
-  <si>
-    <t>24/01/2024</t>
-  </si>
-  <si>
-    <t>23/02/2024</t>
-  </si>
-  <si>
-    <t>24/04/2024</t>
-  </si>
-  <si>
-    <t>23/08/2024</t>
-  </si>
-  <si>
-    <t>24/01/2025</t>
-  </si>
-  <si>
-    <t>25/03/2025</t>
-  </si>
-  <si>
     <t>14/06/2024</t>
   </si>
   <si>
@@ -499,6 +499,9 @@
     <t>BA Comex S.A.</t>
   </si>
   <si>
+    <t>De la Arena Coll Manuel</t>
+  </si>
+  <si>
     <t>Deposito Avellaneda Sur S.A.</t>
   </si>
   <si>
@@ -523,16 +526,10 @@
     <t>Mercovan Argentina S.A.</t>
   </si>
   <si>
-    <t>Nerococina S.A.</t>
-  </si>
-  <si>
     <t>U-Bros S.A.</t>
   </si>
   <si>
     <t>Ulog S.A.</t>
-  </si>
-  <si>
-    <t>Unapa S.A.</t>
   </si>
   <si>
     <t>Viñas En Flor S. R. L.</t>
@@ -896,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I245"/>
+  <dimension ref="A1:I284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -936,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -945,13 +942,13 @@
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>488150</v>
       </c>
       <c r="G2">
-        <v>539161</v>
+        <v>559338</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -965,7 +962,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -974,13 +971,13 @@
         <v>2024</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>122037</v>
       </c>
       <c r="G3">
-        <v>118640</v>
+        <v>123684</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -994,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1003,13 +1000,13 @@
         <v>2024</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>40662</v>
       </c>
       <c r="G4">
-        <v>33481</v>
+        <v>35162</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1023,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1032,13 +1029,13 @@
         <v>2024</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>40662</v>
       </c>
       <c r="G5">
-        <v>28900</v>
+        <v>30581</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1052,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1061,13 +1058,13 @@
         <v>2024</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>40662</v>
       </c>
       <c r="G6">
-        <v>24795</v>
+        <v>26476</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1081,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1090,13 +1087,13 @@
         <v>2024</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>40662</v>
       </c>
       <c r="G7">
-        <v>22276</v>
+        <v>23956</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1110,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1119,13 +1116,13 @@
         <v>2024</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>40662</v>
       </c>
       <c r="G8">
-        <v>19756</v>
+        <v>21437</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1139,7 +1136,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1148,13 +1145,13 @@
         <v>2024</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>40662</v>
       </c>
       <c r="G9">
-        <v>16976</v>
+        <v>18657</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1168,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1177,13 +1174,13 @@
         <v>2024</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>40662</v>
       </c>
       <c r="G10">
-        <v>14456</v>
+        <v>16137</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1197,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1206,13 +1203,13 @@
         <v>2024</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>40662</v>
       </c>
       <c r="G11">
-        <v>11937</v>
+        <v>13617</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1226,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1235,13 +1232,13 @@
         <v>2024</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>40662</v>
       </c>
       <c r="G12">
-        <v>8898</v>
+        <v>10578</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1255,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1264,7 +1261,7 @@
         <v>202405</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1284,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1293,7 +1290,7 @@
         <v>202408</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1313,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1322,13 +1319,13 @@
         <v>202409</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15">
         <v>1414905</v>
       </c>
       <c r="G15">
-        <v>478851</v>
+        <v>537333</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1342,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1351,7 +1348,7 @@
         <v>202410</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1371,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1380,7 +1377,7 @@
         <v>202411</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1400,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1409,7 +1406,7 @@
         <v>202502</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18">
         <v>2869834</v>
@@ -1426,25 +1423,25 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>202405</v>
+        <v>202503</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1597616</v>
       </c>
       <c r="G19">
-        <v>4257</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1458,22 +1455,22 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>202408</v>
+        <v>202405</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1673</v>
+        <v>4257</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1487,22 +1484,22 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>202409</v>
+        <v>202408</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>669</v>
+        <v>1673</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1516,22 +1513,22 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>202410</v>
+        <v>202409</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>53673</v>
+        <v>669</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1545,22 +1542,22 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>202412</v>
+        <v>202410</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2626</v>
+        <v>53673</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1574,22 +1571,22 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>202501</v>
+        <v>202412</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>8763</v>
+        <v>2626</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1603,22 +1600,22 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>202502</v>
+        <v>202501</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1207</v>
+        <v>8763</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1629,25 +1626,25 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>202405</v>
+        <v>202502</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>5408</v>
+        <v>1207</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1658,25 +1655,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>202408</v>
+        <v>202503</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2136</v>
+        <v>1823</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1690,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>202409</v>
+        <v>202405</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -1705,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>854</v>
+        <v>5408</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1719,13 +1716,13 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>202410</v>
+        <v>202408</v>
       </c>
       <c r="E29" t="s">
         <v>39</v>
@@ -1734,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>69221</v>
+        <v>2136</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1748,13 +1745,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>202412</v>
+        <v>202409</v>
       </c>
       <c r="E30" t="s">
         <v>40</v>
@@ -1763,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>3388</v>
+        <v>854</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1777,13 +1774,13 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>202501</v>
+        <v>202410</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
@@ -1792,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>11329</v>
+        <v>69221</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1806,13 +1803,13 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>202502</v>
+        <v>202412</v>
       </c>
       <c r="E32" t="s">
         <v>42</v>
@@ -1821,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1560</v>
+        <v>3388</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1832,89 +1829,89 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2025</v>
+        <v>202501</v>
       </c>
       <c r="E33" t="s">
         <v>43</v>
       </c>
       <c r="F33">
-        <v>10573339</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>281955</v>
+        <v>11329</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2025</v>
+        <v>202502</v>
       </c>
       <c r="E34" t="s">
         <v>44</v>
       </c>
       <c r="F34">
-        <v>10573339</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>2025</v>
+        <v>202503</v>
       </c>
       <c r="E35" t="s">
         <v>45</v>
       </c>
       <c r="F35">
-        <v>10573339</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2357</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1925,19 +1922,19 @@
         <v>17</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>10573339</v>
+        <v>488150</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>559338</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1951,22 +1948,22 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F37">
-        <v>10573339</v>
+        <v>122037</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>123684</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1980,22 +1977,22 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F38">
-        <v>10573339</v>
+        <v>40662</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>35162</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2009,22 +2006,22 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F39">
-        <v>10573339</v>
+        <v>40662</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>30581</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2038,22 +2035,22 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F40">
-        <v>10573339</v>
+        <v>40662</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>26476</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2067,22 +2064,22 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F41">
-        <v>10573339</v>
+        <v>40662</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>23956</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2096,22 +2093,22 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F42">
-        <v>10573339</v>
+        <v>40662</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>21437</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2125,28 +2122,28 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F43">
-        <v>64001</v>
+        <v>40662</v>
       </c>
       <c r="G43">
-        <v>35198</v>
+        <v>18657</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2154,28 +2151,28 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F44">
-        <v>64001</v>
+        <v>40662</v>
       </c>
       <c r="G44">
-        <v>31232</v>
+        <v>16137</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2183,28 +2180,28 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F45">
-        <v>64001</v>
+        <v>40662</v>
       </c>
       <c r="G45">
-        <v>26856</v>
+        <v>13617</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2212,193 +2209,193 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F46">
-        <v>64001</v>
+        <v>40662</v>
       </c>
       <c r="G46">
-        <v>22891</v>
+        <v>10578</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>2025</v>
+        <v>202405</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F47">
-        <v>64001</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>18925</v>
+        <v>34485</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>2025</v>
+        <v>202408</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F48">
-        <v>64001</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>14164</v>
+        <v>2080</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>2025</v>
+        <v>202409</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F49">
-        <v>64001</v>
+        <v>1414905</v>
       </c>
       <c r="G49">
-        <v>9702</v>
+        <v>537333</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>202410</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F50">
-        <v>64001</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>4829</v>
+        <v>909</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>2025</v>
+        <v>202411</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F51">
-        <v>64001</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1621</v>
+        <v>3624</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>2025</v>
+        <v>202502</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F52">
-        <v>64001</v>
+        <v>2869834</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2407,27 +2404,27 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>2024</v>
+        <v>202503</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F53">
-        <v>697344</v>
+        <v>1597616</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2436,471 +2433,471 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>2024</v>
+        <v>202405</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F54">
-        <v>1680245</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>705076</v>
+        <v>4257</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>2024</v>
+        <v>202408</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F55">
-        <v>1680245</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>600962</v>
+        <v>1673</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>2024</v>
+        <v>202409</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F56">
-        <v>1680245</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>496848</v>
+        <v>669</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>2024</v>
+        <v>202410</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F57">
-        <v>1680245</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>371871</v>
+        <v>53673</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>2024</v>
+        <v>202412</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F58">
-        <v>1680245</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>254725</v>
+        <v>2626</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>2024</v>
+        <v>202501</v>
       </c>
       <c r="E59" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F59">
-        <v>1680245</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>126791</v>
+        <v>8763</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>2024</v>
+        <v>202502</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F60">
-        <v>1680245</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>42566</v>
+        <v>1207</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>202501</v>
+        <v>202503</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>32021</v>
+        <v>1823</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>2025</v>
+        <v>202405</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F62">
-        <v>2160992</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>5408</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>2025</v>
+        <v>202408</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F63">
-        <v>2160992</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>2025</v>
+        <v>202409</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F64">
-        <v>2160992</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>2025</v>
+        <v>202410</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F65">
-        <v>2160992</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>69221</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>2025</v>
+        <v>202412</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F66">
-        <v>2160992</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>3388</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>2025</v>
+        <v>202501</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F67">
-        <v>2160992</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>11329</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>2025</v>
+        <v>202502</v>
       </c>
       <c r="E68" t="s">
         <v>44</v>
       </c>
       <c r="F68">
-        <v>4779488</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>2025</v>
+        <v>202503</v>
       </c>
       <c r="E69" t="s">
         <v>45</v>
       </c>
       <c r="F69">
-        <v>4779488</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>2357</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2908,10 +2905,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <v>2025</v>
@@ -2920,7 +2917,7 @@
         <v>46</v>
       </c>
       <c r="F70">
-        <v>4779488</v>
+        <v>10573339</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2929,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2937,10 +2934,10 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <v>2025</v>
@@ -2949,7 +2946,7 @@
         <v>47</v>
       </c>
       <c r="F71">
-        <v>4779488</v>
+        <v>10573339</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2958,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2966,10 +2963,10 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>2025</v>
@@ -2978,7 +2975,7 @@
         <v>48</v>
       </c>
       <c r="F72">
-        <v>4779488</v>
+        <v>10573339</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2987,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2995,10 +2992,10 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>2025</v>
@@ -3007,7 +3004,7 @@
         <v>49</v>
       </c>
       <c r="F73">
-        <v>4779488</v>
+        <v>10573339</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3016,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3024,10 +3021,10 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D74">
         <v>2025</v>
@@ -3036,7 +3033,7 @@
         <v>50</v>
       </c>
       <c r="F74">
-        <v>4779488</v>
+        <v>10573339</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3045,726 +3042,726 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>202412</v>
+        <v>2025</v>
       </c>
       <c r="E75" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F75">
-        <v>3782868</v>
+        <v>10573339</v>
       </c>
       <c r="G75">
-        <v>620579</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>202501</v>
+        <v>2025</v>
       </c>
       <c r="E76" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F76">
-        <v>2719534</v>
+        <v>10573339</v>
       </c>
       <c r="G76">
-        <v>231540</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D77">
-        <v>202502</v>
+        <v>2025</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F77">
-        <v>2771305</v>
+        <v>10573339</v>
       </c>
       <c r="G77">
-        <v>84986</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>202412</v>
+        <v>202503</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F78">
-        <v>5130608</v>
+        <v>15508796</v>
       </c>
       <c r="G78">
-        <v>841675</v>
+        <v>227461</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>202501</v>
+        <v>2025</v>
       </c>
       <c r="E79" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F79">
-        <v>3694530</v>
+        <v>64001</v>
       </c>
       <c r="G79">
-        <v>314551</v>
+        <v>37843</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>202502</v>
+        <v>2025</v>
       </c>
       <c r="E80" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F80">
-        <v>3753479</v>
+        <v>64001</v>
       </c>
       <c r="G80">
-        <v>115106</v>
+        <v>33878</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>201209</v>
+        <v>2025</v>
       </c>
       <c r="E81" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F81">
-        <v>56</v>
+        <v>64001</v>
       </c>
       <c r="G81">
-        <v>340</v>
+        <v>29502</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>201812</v>
+        <v>2025</v>
       </c>
       <c r="E82" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F82">
-        <v>3744</v>
+        <v>64001</v>
       </c>
       <c r="G82">
-        <v>14117</v>
+        <v>25536</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>201901</v>
+        <v>2025</v>
       </c>
       <c r="E83" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F83">
-        <v>2531</v>
+        <v>64001</v>
       </c>
       <c r="G83">
-        <v>9462</v>
+        <v>21570</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>201902</v>
+        <v>2025</v>
       </c>
       <c r="E84" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F84">
-        <v>2520</v>
+        <v>64001</v>
       </c>
       <c r="G84">
-        <v>9316</v>
+        <v>16810</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D85">
-        <v>201903</v>
+        <v>2025</v>
       </c>
       <c r="E85" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F85">
-        <v>3305</v>
+        <v>64001</v>
       </c>
       <c r="G85">
-        <v>12077</v>
+        <v>12348</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D86">
-        <v>201904</v>
+        <v>2025</v>
       </c>
       <c r="E86" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F86">
-        <v>3009</v>
+        <v>64001</v>
       </c>
       <c r="G86">
-        <v>10890</v>
+        <v>7474</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D87">
-        <v>201905</v>
+        <v>2025</v>
       </c>
       <c r="E87" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F87">
-        <v>2928</v>
+        <v>64001</v>
       </c>
       <c r="G87">
-        <v>10482</v>
+        <v>4181</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>201906</v>
+        <v>2025</v>
       </c>
       <c r="E88" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F88">
-        <v>4379</v>
+        <v>64001</v>
       </c>
       <c r="G88">
-        <v>15485</v>
+        <v>1536</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>201907</v>
+        <v>2024</v>
       </c>
       <c r="E89" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F89">
-        <v>2284</v>
+        <v>697344</v>
       </c>
       <c r="G89">
-        <v>7958</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>201908</v>
+        <v>2024</v>
       </c>
       <c r="E90" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F90">
-        <v>3021</v>
+        <v>1680245</v>
       </c>
       <c r="G90">
-        <v>10398</v>
+        <v>774526</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>201909</v>
+        <v>2024</v>
       </c>
       <c r="E91" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F91">
-        <v>3145</v>
+        <v>1680245</v>
       </c>
       <c r="G91">
-        <v>10644</v>
+        <v>670412</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>201910</v>
+        <v>2024</v>
       </c>
       <c r="E92" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F92">
-        <v>3328</v>
+        <v>1680245</v>
       </c>
       <c r="G92">
-        <v>11085</v>
+        <v>566298</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>201911</v>
+        <v>2024</v>
       </c>
       <c r="E93" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F93">
-        <v>3812</v>
+        <v>1680245</v>
       </c>
       <c r="G93">
-        <v>12499</v>
+        <v>441321</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D94">
-        <v>201912</v>
+        <v>2024</v>
       </c>
       <c r="E94" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F94">
-        <v>5506</v>
+        <v>1680245</v>
       </c>
       <c r="G94">
-        <v>17838</v>
+        <v>324175</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D95">
-        <v>202001</v>
+        <v>2024</v>
       </c>
       <c r="E95" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F95">
-        <v>4068</v>
+        <v>1680245</v>
       </c>
       <c r="G95">
-        <v>13023</v>
+        <v>196241</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>202002</v>
+        <v>2024</v>
       </c>
       <c r="E96" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F96">
-        <v>4871</v>
+        <v>1680245</v>
       </c>
       <c r="G96">
-        <v>15429</v>
+        <v>109775</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>202003</v>
+        <v>202501</v>
       </c>
       <c r="E97" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F97">
-        <v>5050</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>15848</v>
+        <v>32021</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>202004</v>
+        <v>202503</v>
       </c>
       <c r="E98" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F98">
-        <v>5190</v>
+        <v>4507449</v>
       </c>
       <c r="G98">
-        <v>16166</v>
+        <v>60099</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>202005</v>
+        <v>2025</v>
       </c>
       <c r="E99" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F99">
-        <v>4643</v>
+        <v>2160992</v>
       </c>
       <c r="G99">
-        <v>14356</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3775,25 +3772,25 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D100">
-        <v>202006</v>
+        <v>2025</v>
       </c>
       <c r="E100" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="F100">
-        <v>8124</v>
+        <v>2160992</v>
       </c>
       <c r="G100">
-        <v>24880</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3804,25 +3801,25 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>202007</v>
+        <v>2025</v>
       </c>
       <c r="E101" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="F101">
-        <v>6186</v>
+        <v>2160992</v>
       </c>
       <c r="G101">
-        <v>18780</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3833,25 +3830,25 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>202008</v>
+        <v>2025</v>
       </c>
       <c r="E102" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="F102">
-        <v>6120</v>
+        <v>2160992</v>
       </c>
       <c r="G102">
-        <v>18394</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3862,25 +3859,25 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>202009</v>
+        <v>2025</v>
       </c>
       <c r="E103" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F103">
-        <v>6458</v>
+        <v>2160992</v>
       </c>
       <c r="G103">
-        <v>19221</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3891,408 +3888,408 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>202010</v>
+        <v>2025</v>
       </c>
       <c r="E104" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F104">
-        <v>7231</v>
+        <v>4779488</v>
       </c>
       <c r="G104">
-        <v>21296</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>202011</v>
+        <v>2025</v>
       </c>
       <c r="E105" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="F105">
-        <v>6704</v>
+        <v>4779488</v>
       </c>
       <c r="G105">
-        <v>19546</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D106">
-        <v>202012</v>
+        <v>2025</v>
       </c>
       <c r="E106" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F106">
-        <v>10360</v>
+        <v>4779488</v>
       </c>
       <c r="G106">
-        <v>29871</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D107">
-        <v>202101</v>
+        <v>2025</v>
       </c>
       <c r="E107" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="F107">
-        <v>6825</v>
+        <v>4779488</v>
       </c>
       <c r="G107">
-        <v>19459</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D108">
-        <v>202102</v>
+        <v>2025</v>
       </c>
       <c r="E108" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="F108">
-        <v>8242</v>
+        <v>4779488</v>
       </c>
       <c r="G108">
-        <v>23222</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>202103</v>
+        <v>2025</v>
       </c>
       <c r="E109" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="F109">
-        <v>9035</v>
+        <v>4779488</v>
       </c>
       <c r="G109">
-        <v>25144</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>202104</v>
+        <v>202412</v>
       </c>
       <c r="E110" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F110">
-        <v>8725</v>
+        <v>3782868</v>
       </c>
       <c r="G110">
-        <v>23978</v>
+        <v>555009</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>283715</v>
       </c>
       <c r="I110" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>202105</v>
+        <v>202501</v>
       </c>
       <c r="E111" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F111">
-        <v>9060</v>
+        <v>2719534</v>
       </c>
       <c r="G111">
-        <v>24597</v>
+        <v>184402</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>203965</v>
       </c>
       <c r="I111" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>202106</v>
+        <v>202502</v>
       </c>
       <c r="E112" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F112">
-        <v>13666</v>
+        <v>2771305</v>
       </c>
       <c r="G112">
-        <v>36641</v>
+        <v>195838</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>202107</v>
+        <v>202503</v>
       </c>
       <c r="E113" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F113">
-        <v>8428</v>
+        <v>2937516</v>
       </c>
       <c r="G113">
-        <v>22335</v>
+        <v>94000</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>202108</v>
+        <v>202412</v>
       </c>
       <c r="E114" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F114">
-        <v>10916</v>
+        <v>5130608</v>
       </c>
       <c r="G114">
-        <v>28551</v>
+        <v>752745</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>384796</v>
       </c>
       <c r="I114" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>202109</v>
+        <v>202501</v>
       </c>
       <c r="E115" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F115">
-        <v>10810</v>
+        <v>3694530</v>
       </c>
       <c r="G115">
-        <v>27899</v>
+        <v>250513</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>277090</v>
       </c>
       <c r="I115" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>202110</v>
+        <v>202502</v>
       </c>
       <c r="E116" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F116">
-        <v>12132</v>
+        <v>3753479</v>
       </c>
       <c r="G116">
-        <v>30931</v>
+        <v>265245</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>202111</v>
+        <v>202503</v>
       </c>
       <c r="E117" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="F117">
-        <v>11468</v>
+        <v>3978637</v>
       </c>
       <c r="G117">
-        <v>28827</v>
+        <v>127316</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4300,28 +4297,28 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>202112</v>
+        <v>201209</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F118">
-        <v>16925</v>
+        <v>56</v>
       </c>
       <c r="G118">
-        <v>42016</v>
+        <v>342</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4329,28 +4326,28 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>202201</v>
+        <v>201812</v>
       </c>
       <c r="E119" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F119">
-        <v>10878</v>
+        <v>3744</v>
       </c>
       <c r="G119">
-        <v>26652</v>
+        <v>14272</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4358,28 +4355,28 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>202202</v>
+        <v>201901</v>
       </c>
       <c r="E120" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F120">
-        <v>10062</v>
+        <v>2531</v>
       </c>
       <c r="G120">
-        <v>24282</v>
+        <v>9566</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4387,28 +4384,28 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>202203</v>
+        <v>201902</v>
       </c>
       <c r="E121" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F121">
-        <v>10950</v>
+        <v>2520</v>
       </c>
       <c r="G121">
-        <v>25994</v>
+        <v>9420</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4416,28 +4413,28 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>202204</v>
+        <v>201903</v>
       </c>
       <c r="E122" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F122">
-        <v>12346</v>
+        <v>3305</v>
       </c>
       <c r="G122">
-        <v>28878</v>
+        <v>12213</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4445,28 +4442,28 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>202205</v>
+        <v>201904</v>
       </c>
       <c r="E123" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F123">
-        <v>13806</v>
+        <v>3009</v>
       </c>
       <c r="G123">
-        <v>31745</v>
+        <v>11015</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4474,28 +4471,28 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>202206</v>
+        <v>201905</v>
       </c>
       <c r="E124" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F124">
-        <v>22988</v>
+        <v>2928</v>
       </c>
       <c r="G124">
-        <v>51948</v>
+        <v>10603</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4503,28 +4500,28 @@
         <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>202207</v>
+        <v>201906</v>
       </c>
       <c r="E125" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F125">
-        <v>15230</v>
+        <v>4379</v>
       </c>
       <c r="G125">
-        <v>33791</v>
+        <v>15666</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4532,28 +4529,28 @@
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>202208</v>
+        <v>201907</v>
       </c>
       <c r="E126" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="F126">
-        <v>20087</v>
+        <v>2284</v>
       </c>
       <c r="G126">
-        <v>43344</v>
+        <v>8052</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4561,28 +4558,28 @@
         <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>202209</v>
+        <v>201908</v>
       </c>
       <c r="E127" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F127">
-        <v>23529</v>
+        <v>3021</v>
       </c>
       <c r="G127">
-        <v>49382</v>
+        <v>10523</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4590,28 +4587,28 @@
         <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>202210</v>
+        <v>201909</v>
       </c>
       <c r="E128" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F128">
-        <v>26793</v>
+        <v>3145</v>
       </c>
       <c r="G128">
-        <v>54594</v>
+        <v>10774</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4619,28 +4616,28 @@
         <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>202211</v>
+        <v>201910</v>
       </c>
       <c r="E129" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="F129">
-        <v>26646</v>
+        <v>3328</v>
       </c>
       <c r="G129">
-        <v>52667</v>
+        <v>11223</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4648,28 +4645,28 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>202212</v>
+        <v>201911</v>
       </c>
       <c r="E130" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="F130">
-        <v>44061</v>
+        <v>3812</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>12657</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4677,28 +4674,28 @@
         <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>202301</v>
+        <v>201912</v>
       </c>
       <c r="E131" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="F131">
-        <v>27448</v>
+        <v>5506</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>18065</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4706,28 +4703,28 @@
         <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>202302</v>
+        <v>202001</v>
       </c>
       <c r="E132" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="F132">
-        <v>31796</v>
+        <v>4068</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>13191</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4735,28 +4732,28 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>202303</v>
+        <v>202002</v>
       </c>
       <c r="E133" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="F133">
-        <v>31969</v>
+        <v>4871</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>15631</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4764,28 +4761,28 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>202304</v>
+        <v>202003</v>
       </c>
       <c r="E134" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F134">
-        <v>33077</v>
+        <v>5050</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>16057</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4793,28 +4790,28 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>202305</v>
+        <v>202004</v>
       </c>
       <c r="E135" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F135">
-        <v>27905</v>
+        <v>5190</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>16380</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4822,28 +4819,28 @@
         <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>202306</v>
+        <v>202005</v>
       </c>
       <c r="E136" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F136">
-        <v>45201</v>
+        <v>4643</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>14548</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4851,28 +4848,28 @@
         <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>202307</v>
+        <v>202006</v>
       </c>
       <c r="E137" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F137">
-        <v>30271</v>
+        <v>8124</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>25216</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4880,28 +4877,28 @@
         <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>202308</v>
+        <v>202007</v>
       </c>
       <c r="E138" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F138">
-        <v>42463</v>
+        <v>6186</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>19035</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4909,28 +4906,28 @@
         <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>202309</v>
+        <v>202008</v>
       </c>
       <c r="E139" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F139">
-        <v>53291</v>
+        <v>6120</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>18647</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4938,28 +4935,28 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>202310</v>
+        <v>202009</v>
       </c>
       <c r="E140" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F140">
-        <v>65745</v>
+        <v>6458</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>19488</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4967,28 +4964,28 @@
         <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>202311</v>
+        <v>202010</v>
       </c>
       <c r="E141" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F141">
-        <v>71074</v>
+        <v>7231</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>21595</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4996,28 +4993,28 @@
         <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>202312</v>
+        <v>202011</v>
       </c>
       <c r="E142" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F142">
-        <v>118384</v>
+        <v>6704</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>19824</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5025,28 +5022,28 @@
         <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>202401</v>
+        <v>202012</v>
       </c>
       <c r="E143" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F143">
-        <v>82720</v>
+        <v>10360</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>30299</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5054,28 +5051,28 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>202402</v>
+        <v>202101</v>
       </c>
       <c r="E144" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F144">
-        <v>103315</v>
+        <v>6825</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>19742</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5083,28 +5080,28 @@
         <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145">
-        <v>202403</v>
+        <v>202102</v>
       </c>
       <c r="E145" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F145">
-        <v>117644</v>
+        <v>8242</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>23562</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5112,28 +5109,28 @@
         <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146">
-        <v>202404</v>
+        <v>202103</v>
       </c>
       <c r="E146" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F146">
-        <v>145471</v>
+        <v>9035</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>25517</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5141,28 +5138,28 @@
         <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>202405</v>
+        <v>202104</v>
       </c>
       <c r="E147" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F147">
-        <v>151619</v>
+        <v>8725</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>24339</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5170,28 +5167,28 @@
         <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148">
-        <v>202406</v>
+        <v>202105</v>
       </c>
       <c r="E148" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F148">
-        <v>250402</v>
+        <v>9060</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>24971</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5199,28 +5196,28 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>202407</v>
+        <v>202106</v>
       </c>
       <c r="E149" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F149">
-        <v>164333</v>
+        <v>13666</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>37206</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5228,28 +5225,28 @@
         <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>202408</v>
+        <v>202107</v>
       </c>
       <c r="E150" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F150">
-        <v>173210</v>
+        <v>8428</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>22684</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5257,28 +5254,28 @@
         <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151">
-        <v>202409</v>
+        <v>202108</v>
       </c>
       <c r="E151" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F151">
-        <v>178819</v>
+        <v>10916</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>29002</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5286,28 +5283,28 @@
         <v>14</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152">
-        <v>202410</v>
+        <v>202109</v>
       </c>
       <c r="E152" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F152">
-        <v>194309</v>
+        <v>10810</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>28346</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5315,28 +5312,28 @@
         <v>14</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
-        <v>202411</v>
+        <v>202110</v>
       </c>
       <c r="E153" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F153">
-        <v>195564</v>
+        <v>12132</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>31432</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5344,28 +5341,28 @@
         <v>14</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154">
-        <v>202412</v>
+        <v>202111</v>
       </c>
       <c r="E154" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F154">
-        <v>304723</v>
+        <v>11468</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>29301</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5373,28 +5370,28 @@
         <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155">
-        <v>202501</v>
+        <v>202112</v>
       </c>
       <c r="E155" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F155">
-        <v>203608</v>
+        <v>16925</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>42715</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5402,51 +5399,51 @@
         <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="D156">
-        <v>202502</v>
+        <v>202201</v>
       </c>
       <c r="E156" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F156">
-        <v>207803</v>
+        <v>10878</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>27102</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>202412</v>
+        <v>202202</v>
       </c>
       <c r="E157" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F157">
-        <v>6537247</v>
+        <v>10062</v>
       </c>
       <c r="G157">
-        <v>122028</v>
+        <v>24698</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -5457,25 +5454,25 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>202501</v>
+        <v>202203</v>
       </c>
       <c r="E158" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F158">
-        <v>8376364</v>
+        <v>10950</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>26446</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -5486,25 +5483,25 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>202502</v>
+        <v>202204</v>
       </c>
       <c r="E159" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F159">
-        <v>962787</v>
+        <v>12346</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>29388</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -5515,25 +5512,25 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>201506</v>
+        <v>202205</v>
       </c>
       <c r="E160" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F160">
-        <v>1848</v>
+        <v>13806</v>
       </c>
       <c r="G160">
-        <v>9330</v>
+        <v>32316</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5544,25 +5541,25 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>202411</v>
+        <v>202206</v>
       </c>
       <c r="E161" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>22988</v>
       </c>
       <c r="G161">
-        <v>10504</v>
+        <v>52898</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -5573,25 +5570,25 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>202412</v>
+        <v>202207</v>
       </c>
       <c r="E162" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>15230</v>
       </c>
       <c r="G162">
-        <v>21834</v>
+        <v>34420</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -5602,25 +5599,25 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>202411</v>
+        <v>202208</v>
       </c>
       <c r="E163" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>20087</v>
       </c>
       <c r="G163">
-        <v>13316</v>
+        <v>44175</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -5631,25 +5628,25 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>202412</v>
+        <v>202209</v>
       </c>
       <c r="E164" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>23529</v>
       </c>
       <c r="G164">
-        <v>27384</v>
+        <v>50354</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -5660,80 +5657,80 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165">
-        <v>202501</v>
+        <v>202210</v>
       </c>
       <c r="E165" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F165">
-        <v>12819036</v>
+        <v>26793</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>55702</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>202502</v>
+        <v>202211</v>
       </c>
       <c r="E166" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F166">
-        <v>15527535</v>
+        <v>26646</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>53769</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167">
-        <v>202502</v>
+        <v>202212</v>
       </c>
       <c r="E167" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F167">
-        <v>6237517</v>
+        <v>44061</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -5742,27 +5739,27 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168">
-        <v>202501</v>
+        <v>202301</v>
       </c>
       <c r="E168" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F168">
-        <v>154588</v>
+        <v>27448</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -5771,27 +5768,27 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="D169">
-        <v>202501</v>
+        <v>202302</v>
       </c>
       <c r="E169" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F169">
-        <v>362845</v>
+        <v>31796</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5800,27 +5797,27 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>202502</v>
+        <v>202303</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="F170">
-        <v>563267</v>
+        <v>31969</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -5829,703 +5826,703 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B171" t="s">
         <v>17</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>2024</v>
+        <v>202304</v>
       </c>
       <c r="E171" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F171">
-        <v>99736</v>
+        <v>33077</v>
       </c>
       <c r="G171">
-        <v>41638</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B172" t="s">
         <v>17</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>2024</v>
+        <v>202305</v>
       </c>
       <c r="E172" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="F172">
-        <v>99736</v>
+        <v>27905</v>
       </c>
       <c r="G172">
-        <v>35458</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
         <v>17</v>
       </c>
       <c r="C173">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D173">
-        <v>2024</v>
+        <v>202306</v>
       </c>
       <c r="E173" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F173">
-        <v>99736</v>
+        <v>45201</v>
       </c>
       <c r="G173">
-        <v>29278</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
         <v>17</v>
       </c>
       <c r="C174">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>2024</v>
+        <v>202307</v>
       </c>
       <c r="E174" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="F174">
-        <v>99736</v>
+        <v>30271</v>
       </c>
       <c r="G174">
-        <v>21825</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
         <v>17</v>
       </c>
       <c r="C175">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>2024</v>
+        <v>202308</v>
       </c>
       <c r="E175" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F175">
-        <v>99736</v>
+        <v>42463</v>
       </c>
       <c r="G175">
-        <v>14871</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B176" t="s">
         <v>17</v>
       </c>
       <c r="C176">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>2024</v>
+        <v>202309</v>
       </c>
       <c r="E176" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F176">
-        <v>99736</v>
+        <v>53291</v>
       </c>
       <c r="G176">
-        <v>6801</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
         <v>17</v>
       </c>
       <c r="C177">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>2024</v>
+        <v>202310</v>
       </c>
       <c r="E177" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F177">
-        <v>99736</v>
+        <v>65745</v>
       </c>
       <c r="G177">
-        <v>2127</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="D178">
-        <v>202501</v>
+        <v>202311</v>
       </c>
       <c r="E178" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F178">
-        <v>572862</v>
+        <v>71074</v>
       </c>
       <c r="G178">
-        <v>29364</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179">
-        <v>201907</v>
+        <v>202312</v>
       </c>
       <c r="E179" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>118384</v>
       </c>
       <c r="G179">
-        <v>100837</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="D180">
-        <v>202105</v>
+        <v>202401</v>
       </c>
       <c r="E180" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>82720</v>
       </c>
       <c r="G180">
-        <v>458492</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
       <c r="D181">
-        <v>2023</v>
+        <v>202402</v>
       </c>
       <c r="E181" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>103315</v>
       </c>
       <c r="G181">
-        <v>6176522</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
         <v>17</v>
       </c>
       <c r="C182">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>2023</v>
+        <v>202403</v>
       </c>
       <c r="E182" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>117644</v>
       </c>
       <c r="G182">
-        <v>148987</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B183" t="s">
         <v>17</v>
       </c>
       <c r="C183">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D183">
-        <v>2023</v>
+        <v>202404</v>
       </c>
       <c r="E183" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>145471</v>
       </c>
       <c r="G183">
-        <v>66080</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s">
         <v>17</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>2024</v>
+        <v>202405</v>
       </c>
       <c r="E184" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>151619</v>
       </c>
       <c r="G184">
-        <v>35027</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
         <v>17</v>
       </c>
       <c r="C185">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>2024</v>
+        <v>202406</v>
       </c>
       <c r="E185" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>250402</v>
       </c>
       <c r="G185">
-        <v>40030</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B186" t="s">
         <v>17</v>
       </c>
       <c r="C186">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D186">
-        <v>2024</v>
+        <v>202407</v>
       </c>
       <c r="E186" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>164333</v>
       </c>
       <c r="G186">
-        <v>209175</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B187" t="s">
         <v>17</v>
       </c>
       <c r="C187">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D187">
-        <v>2024</v>
+        <v>202408</v>
       </c>
       <c r="E187" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>173210</v>
       </c>
       <c r="G187">
-        <v>233250</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
         <v>17</v>
       </c>
       <c r="C188">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>2024</v>
+        <v>202409</v>
       </c>
       <c r="E188" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>178819</v>
       </c>
       <c r="G188">
-        <v>267597</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B189" t="s">
         <v>17</v>
       </c>
       <c r="C189">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>2024</v>
+        <v>202410</v>
       </c>
       <c r="E189" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>194309</v>
       </c>
       <c r="G189">
-        <v>77952</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B190" t="s">
         <v>17</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>2024</v>
+        <v>202411</v>
       </c>
       <c r="E190" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F190">
-        <v>2341868</v>
+        <v>195564</v>
       </c>
       <c r="G190">
-        <v>49959</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191">
-        <v>202310</v>
+        <v>202412</v>
       </c>
       <c r="E191" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>304723</v>
       </c>
       <c r="G191">
-        <v>1300651</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="D192">
-        <v>202311</v>
+        <v>202501</v>
       </c>
       <c r="E192" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>203608</v>
       </c>
       <c r="G192">
-        <v>885397</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="D193">
-        <v>202401</v>
+        <v>202502</v>
       </c>
       <c r="E193" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>207803</v>
       </c>
       <c r="G193">
-        <v>768732</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="D194">
-        <v>202403</v>
+        <v>202503</v>
       </c>
       <c r="E194" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>224714</v>
       </c>
       <c r="G194">
-        <v>1073013</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6533,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C195">
         <v>0</v>
       </c>
       <c r="D195">
-        <v>202407</v>
+        <v>202502</v>
       </c>
       <c r="E195" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>962787</v>
       </c>
       <c r="G195">
-        <v>62421</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6562,115 +6559,115 @@
         <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="D196">
-        <v>202409</v>
+        <v>202503</v>
       </c>
       <c r="E196" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>2637674</v>
       </c>
       <c r="G196">
-        <v>5413</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C197">
         <v>0</v>
       </c>
       <c r="D197">
-        <v>202412</v>
+        <v>201506</v>
       </c>
       <c r="E197" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F197">
-        <v>3184703</v>
+        <v>1848</v>
       </c>
       <c r="G197">
-        <v>403501</v>
+        <v>9406</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="D198">
-        <v>202502</v>
+        <v>202503</v>
       </c>
       <c r="E198" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="F198">
-        <v>4362447</v>
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>46532</v>
+        <v>949</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
       <c r="D199">
-        <v>2023</v>
+        <v>202411</v>
       </c>
       <c r="E199" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>2961418</v>
+        <v>10504</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6678,782 +6675,782 @@
         <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200">
-        <v>202402</v>
+        <v>202412</v>
       </c>
       <c r="E200" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>117913</v>
+        <v>21834</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201">
-        <v>202403</v>
+        <v>202411</v>
       </c>
       <c r="E201" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>350992</v>
+        <v>13316</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="D202">
-        <v>202404</v>
+        <v>202412</v>
       </c>
       <c r="E202" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>229176</v>
+        <v>27384</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="D203">
-        <v>202405</v>
+        <v>202503</v>
       </c>
       <c r="E203" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>127981</v>
+        <v>129</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
       <c r="D204">
-        <v>202406</v>
+        <v>202502</v>
       </c>
       <c r="E204" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>15527535</v>
       </c>
       <c r="G204">
-        <v>207975</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C205">
         <v>0</v>
       </c>
       <c r="D205">
-        <v>202407</v>
+        <v>202503</v>
       </c>
       <c r="E205" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>17064544</v>
       </c>
       <c r="G205">
-        <v>28231</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C206">
         <v>0</v>
       </c>
       <c r="D206">
-        <v>202408</v>
+        <v>202502</v>
       </c>
       <c r="E206" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>6237517</v>
       </c>
       <c r="G206">
-        <v>24680</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C207">
         <v>0</v>
       </c>
       <c r="D207">
-        <v>202409</v>
+        <v>202405</v>
       </c>
       <c r="E207" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207">
-        <v>4378</v>
+        <v>466</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C208">
         <v>0</v>
       </c>
       <c r="D208">
-        <v>202410</v>
+        <v>202502</v>
       </c>
       <c r="E208" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>563267</v>
       </c>
       <c r="G208">
-        <v>113377</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C209">
         <v>0</v>
       </c>
       <c r="D209">
-        <v>202411</v>
+        <v>202503</v>
       </c>
       <c r="E209" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1759556</v>
       </c>
       <c r="G209">
-        <v>258612</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>202412</v>
+        <v>2024</v>
       </c>
       <c r="E210" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>99736</v>
       </c>
       <c r="G210">
-        <v>230479</v>
+        <v>45761</v>
       </c>
       <c r="H210">
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D211">
-        <v>202501</v>
+        <v>2024</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F211">
-        <v>2405697</v>
+        <v>99736</v>
       </c>
       <c r="G211">
-        <v>193177</v>
+        <v>39581</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D212">
-        <v>202502</v>
+        <v>2024</v>
       </c>
       <c r="E212" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F212">
-        <v>2569869</v>
+        <v>99736</v>
       </c>
       <c r="G212">
-        <v>71956</v>
+        <v>33401</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D213">
-        <v>202402</v>
+        <v>2024</v>
       </c>
       <c r="E213" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>99736</v>
       </c>
       <c r="G213">
-        <v>154226</v>
+        <v>25947</v>
       </c>
       <c r="H213">
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D214">
-        <v>202403</v>
+        <v>2024</v>
       </c>
       <c r="E214" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>99736</v>
       </c>
       <c r="G214">
-        <v>459083</v>
+        <v>18994</v>
       </c>
       <c r="H214">
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D215">
-        <v>202404</v>
+        <v>2024</v>
       </c>
       <c r="E215" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>99736</v>
       </c>
       <c r="G215">
-        <v>299753</v>
+        <v>10924</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D216">
-        <v>202405</v>
+        <v>2024</v>
       </c>
       <c r="E216" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>99736</v>
       </c>
       <c r="G216">
-        <v>167395</v>
+        <v>6117</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
       <c r="D217">
-        <v>202406</v>
+        <v>2023</v>
       </c>
       <c r="E217" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
       <c r="G217">
-        <v>272023</v>
+        <v>6176522</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D218">
-        <v>202407</v>
+        <v>2023</v>
       </c>
       <c r="E218" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
       <c r="G218">
-        <v>36925</v>
+        <v>148987</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D219">
-        <v>202408</v>
+        <v>2023</v>
       </c>
       <c r="E219" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
       <c r="G219">
-        <v>32280</v>
+        <v>66080</v>
       </c>
       <c r="H219">
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D220">
-        <v>202409</v>
+        <v>2024</v>
       </c>
       <c r="E220" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>5727</v>
+        <v>35027</v>
       </c>
       <c r="H220">
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D221">
-        <v>202410</v>
+        <v>2024</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221">
-        <v>148293</v>
+        <v>40030</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D222">
-        <v>202411</v>
+        <v>2024</v>
       </c>
       <c r="E222" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222">
-        <v>338253</v>
+        <v>209175</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D223">
-        <v>202412</v>
+        <v>2024</v>
       </c>
       <c r="E223" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223">
-        <v>301457</v>
+        <v>233250</v>
       </c>
       <c r="H223">
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D224">
-        <v>202501</v>
+        <v>2024</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="F224">
-        <v>3146552</v>
+        <v>0</v>
       </c>
       <c r="G224">
-        <v>252667</v>
+        <v>267597</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D225">
-        <v>202502</v>
+        <v>2024</v>
       </c>
       <c r="E225" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="F225">
-        <v>3361283</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>94115</v>
+        <v>77952</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226">
         <v>10</v>
       </c>
-      <c r="B226" t="s">
-        <v>16</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
       <c r="D226">
-        <v>202302</v>
+        <v>2024</v>
       </c>
       <c r="E226" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F226">
-        <v>147410</v>
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>275377</v>
+        <v>71817</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7461,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C227">
         <v>0</v>
       </c>
       <c r="D227">
-        <v>202304</v>
+        <v>202310</v>
       </c>
       <c r="E227" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F227">
-        <v>271664</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>459362</v>
+        <v>1300651</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7490,28 +7487,28 @@
         <v>10</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C228">
         <v>0</v>
       </c>
       <c r="D228">
-        <v>202305</v>
+        <v>202311</v>
       </c>
       <c r="E228" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F228">
-        <v>125696</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>204123</v>
+        <v>885397</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7519,28 +7516,28 @@
         <v>10</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C229">
         <v>0</v>
       </c>
       <c r="D229">
-        <v>202307</v>
+        <v>202401</v>
       </c>
       <c r="E229" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F229">
-        <v>688371</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>1040576</v>
+        <v>768732</v>
       </c>
       <c r="H229">
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7548,28 +7545,28 @@
         <v>10</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C230">
         <v>0</v>
       </c>
       <c r="D230">
-        <v>202402</v>
+        <v>202403</v>
       </c>
       <c r="E230" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="F230">
-        <v>194087</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>181768</v>
+        <v>1073013</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7577,173 +7574,173 @@
         <v>10</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>202408</v>
+        <v>202407</v>
       </c>
       <c r="E231" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="F231">
-        <v>101465</v>
+        <v>0</v>
       </c>
       <c r="G231">
-        <v>40843</v>
+        <v>62421</v>
       </c>
       <c r="H231">
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
       <c r="D232">
-        <v>2022</v>
+        <v>202409</v>
       </c>
       <c r="E232" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="F232">
-        <v>10291</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>16976</v>
+        <v>5413</v>
       </c>
       <c r="H232">
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
       <c r="D233">
-        <v>202302</v>
+        <v>202412</v>
       </c>
       <c r="E233" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F233">
-        <v>17825</v>
+        <v>0</v>
       </c>
       <c r="G233">
-        <v>32635</v>
+        <v>441155</v>
       </c>
       <c r="H233">
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C234">
         <v>0</v>
       </c>
       <c r="D234">
-        <v>202303</v>
+        <v>202502</v>
       </c>
       <c r="E234" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F234">
-        <v>37104</v>
+        <v>4362447</v>
       </c>
       <c r="G234">
-        <v>65810</v>
+        <v>221030</v>
       </c>
       <c r="H234">
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C235">
         <v>0</v>
       </c>
       <c r="D235">
-        <v>202304</v>
+        <v>202503</v>
       </c>
       <c r="E235" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F235">
-        <v>61301</v>
+        <v>978859</v>
       </c>
       <c r="G235">
-        <v>105225</v>
+        <v>10441</v>
       </c>
       <c r="H235">
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B236" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C236">
         <v>0</v>
       </c>
       <c r="D236">
-        <v>202305</v>
+        <v>2023</v>
       </c>
       <c r="E236" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F236">
-        <v>97975</v>
+        <v>0</v>
       </c>
       <c r="G236">
-        <v>162000</v>
+        <v>2961418</v>
       </c>
       <c r="H236">
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7751,28 +7748,28 @@
         <v>11</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="D237">
-        <v>202306</v>
+        <v>202402</v>
       </c>
       <c r="E237" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F237">
-        <v>129671</v>
+        <v>0</v>
       </c>
       <c r="G237">
-        <v>207002</v>
+        <v>117913</v>
       </c>
       <c r="H237">
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7780,231 +7777,1362 @@
         <v>11</v>
       </c>
       <c r="B238" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C238">
         <v>0</v>
       </c>
       <c r="D238">
-        <v>202307</v>
+        <v>202403</v>
       </c>
       <c r="E238" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F238">
-        <v>91434</v>
+        <v>0</v>
       </c>
       <c r="G238">
-        <v>140739</v>
+        <v>350992</v>
       </c>
       <c r="H238">
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B239" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
       <c r="D239">
-        <v>202302</v>
+        <v>202404</v>
       </c>
       <c r="E239" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F239">
-        <v>20675</v>
+        <v>0</v>
       </c>
       <c r="G239">
-        <v>45390</v>
+        <v>229176</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B240" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240">
-        <v>202303</v>
+        <v>202405</v>
       </c>
       <c r="E240" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="F240">
-        <v>79860</v>
+        <v>0</v>
       </c>
       <c r="G240">
-        <v>141646</v>
+        <v>127981</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B241" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
       <c r="D241">
-        <v>202304</v>
+        <v>202406</v>
       </c>
       <c r="E241" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="F241">
-        <v>40769</v>
+        <v>0</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>207975</v>
       </c>
       <c r="H241">
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242">
-        <v>202304</v>
+        <v>202407</v>
       </c>
       <c r="E242" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F242">
-        <v>37394</v>
+        <v>0</v>
       </c>
       <c r="G242">
-        <v>64189</v>
+        <v>28231</v>
       </c>
       <c r="H242">
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
       <c r="D243">
-        <v>202305</v>
+        <v>202408</v>
       </c>
       <c r="E243" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="F243">
-        <v>121934</v>
+        <v>0</v>
       </c>
       <c r="G243">
-        <v>201618</v>
+        <v>24680</v>
       </c>
       <c r="H243">
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C244">
         <v>0</v>
       </c>
       <c r="D244">
-        <v>202306</v>
+        <v>202409</v>
       </c>
       <c r="E244" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="F244">
-        <v>162761</v>
+        <v>0</v>
       </c>
       <c r="G244">
-        <v>259826</v>
+        <v>4378</v>
       </c>
       <c r="H244">
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>202410</v>
+      </c>
+      <c r="E245" t="s">
+        <v>41</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>113377</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" t="s">
+        <v>17</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>202411</v>
+      </c>
+      <c r="E246" t="s">
+        <v>147</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>258612</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>202412</v>
+      </c>
+      <c r="E247" t="s">
+        <v>42</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>230479</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>202501</v>
+      </c>
+      <c r="E248" t="s">
+        <v>43</v>
+      </c>
+      <c r="F248">
+        <v>2405697</v>
+      </c>
+      <c r="G248">
+        <v>292612</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" t="s">
+        <v>17</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>202502</v>
+      </c>
+      <c r="E249" t="s">
+        <v>44</v>
+      </c>
+      <c r="F249">
+        <v>2569869</v>
+      </c>
+      <c r="G249">
+        <v>174750</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>202503</v>
+      </c>
+      <c r="E250" t="s">
+        <v>45</v>
+      </c>
+      <c r="F250">
+        <v>2602345</v>
+      </c>
+      <c r="G250">
+        <v>76335</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
         <v>12</v>
       </c>
-      <c r="B245" t="s">
-        <v>16</v>
-      </c>
-      <c r="C245">
-        <v>0</v>
-      </c>
-      <c r="D245">
+      <c r="B251" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>202402</v>
+      </c>
+      <c r="E251" t="s">
+        <v>142</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>154226</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>12</v>
+      </c>
+      <c r="B252" t="s">
+        <v>17</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>202403</v>
+      </c>
+      <c r="E252" t="s">
+        <v>143</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>459083</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" t="s">
+        <v>17</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>202404</v>
+      </c>
+      <c r="E253" t="s">
+        <v>144</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>299753</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" t="s">
+        <v>17</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>202405</v>
+      </c>
+      <c r="E254" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>167395</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" t="s">
+        <v>17</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>202406</v>
+      </c>
+      <c r="E255" t="s">
+        <v>145</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>272023</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" t="s">
+        <v>17</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>202407</v>
+      </c>
+      <c r="E256" t="s">
+        <v>146</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>36925</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>17</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>202408</v>
+      </c>
+      <c r="E257" t="s">
+        <v>39</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>32280</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" t="s">
+        <v>12</v>
+      </c>
+      <c r="B258" t="s">
+        <v>17</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>202409</v>
+      </c>
+      <c r="E258" t="s">
+        <v>40</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>5727</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>202410</v>
+      </c>
+      <c r="E259" t="s">
+        <v>41</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>148293</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>202411</v>
+      </c>
+      <c r="E260" t="s">
+        <v>147</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>338253</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" t="s">
+        <v>17</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>202412</v>
+      </c>
+      <c r="E261" t="s">
+        <v>42</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>301457</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" t="s">
+        <v>17</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>202501</v>
+      </c>
+      <c r="E262" t="s">
+        <v>43</v>
+      </c>
+      <c r="F262">
+        <v>3146552</v>
+      </c>
+      <c r="G262">
+        <v>382724</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>202502</v>
+      </c>
+      <c r="E263" t="s">
+        <v>44</v>
+      </c>
+      <c r="F263">
+        <v>3361283</v>
+      </c>
+      <c r="G263">
+        <v>228566</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>202503</v>
+      </c>
+      <c r="E264" t="s">
+        <v>45</v>
+      </c>
+      <c r="F264">
+        <v>3403760</v>
+      </c>
+      <c r="G264">
+        <v>99843</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" t="s">
+        <v>17</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>202302</v>
+      </c>
+      <c r="E265" t="s">
+        <v>148</v>
+      </c>
+      <c r="F265">
+        <v>147410</v>
+      </c>
+      <c r="G265">
+        <v>271905</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>202304</v>
+      </c>
+      <c r="E266" t="s">
+        <v>149</v>
+      </c>
+      <c r="F266">
+        <v>271664</v>
+      </c>
+      <c r="G266">
+        <v>470591</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>202305</v>
+      </c>
+      <c r="E267" t="s">
+        <v>150</v>
+      </c>
+      <c r="F267">
+        <v>125696</v>
+      </c>
+      <c r="G267">
+        <v>209318</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" t="s">
+        <v>10</v>
+      </c>
+      <c r="B268" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
         <v>202307</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E268" t="s">
+        <v>151</v>
+      </c>
+      <c r="F268">
+        <v>688371</v>
+      </c>
+      <c r="G268">
+        <v>1069029</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" t="s">
+        <v>17</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>202402</v>
+      </c>
+      <c r="E269" t="s">
+        <v>152</v>
+      </c>
+      <c r="F269">
+        <v>194087</v>
+      </c>
+      <c r="G269">
+        <v>189790</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>202408</v>
+      </c>
+      <c r="E270" t="s">
+        <v>32</v>
+      </c>
+      <c r="F270">
+        <v>101465</v>
+      </c>
+      <c r="G270">
+        <v>45037</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>2022</v>
+      </c>
+      <c r="E271" t="s">
+        <v>153</v>
+      </c>
+      <c r="F271">
+        <v>10291</v>
+      </c>
+      <c r="G271">
+        <v>17401</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272" t="s">
+        <v>17</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>202302</v>
+      </c>
+      <c r="E272" t="s">
+        <v>154</v>
+      </c>
+      <c r="F272">
+        <v>17825</v>
+      </c>
+      <c r="G272">
+        <v>33372</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
+        <v>17</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>202303</v>
+      </c>
+      <c r="E273" t="s">
+        <v>155</v>
+      </c>
+      <c r="F273">
+        <v>37104</v>
+      </c>
+      <c r="G273">
+        <v>67343</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" t="s">
+        <v>17</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>202304</v>
+      </c>
+      <c r="E274" t="s">
+        <v>156</v>
+      </c>
+      <c r="F274">
+        <v>61301</v>
+      </c>
+      <c r="G274">
+        <v>107759</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" t="s">
+        <v>17</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>202305</v>
+      </c>
+      <c r="E275" t="s">
+        <v>157</v>
+      </c>
+      <c r="F275">
+        <v>97975</v>
+      </c>
+      <c r="G275">
+        <v>166050</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276" t="s">
+        <v>17</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>202306</v>
+      </c>
+      <c r="E276" t="s">
+        <v>158</v>
+      </c>
+      <c r="F276">
+        <v>129671</v>
+      </c>
+      <c r="G276">
+        <v>212361</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" t="s">
+        <v>17</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>202307</v>
+      </c>
+      <c r="E277" t="s">
         <v>159</v>
       </c>
-      <c r="F245">
+      <c r="F277">
+        <v>91434</v>
+      </c>
+      <c r="G277">
+        <v>144518</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>202302</v>
+      </c>
+      <c r="E278" t="s">
+        <v>154</v>
+      </c>
+      <c r="F278">
+        <v>20675</v>
+      </c>
+      <c r="G278">
+        <v>38706</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>202303</v>
+      </c>
+      <c r="E279" t="s">
+        <v>155</v>
+      </c>
+      <c r="F279">
+        <v>79860</v>
+      </c>
+      <c r="G279">
+        <v>144947</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" t="s">
+        <v>19</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>202304</v>
+      </c>
+      <c r="E280" t="s">
+        <v>120</v>
+      </c>
+      <c r="F280">
+        <v>40769</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" t="s">
+        <v>17</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>202304</v>
+      </c>
+      <c r="E281" t="s">
+        <v>156</v>
+      </c>
+      <c r="F281">
+        <v>37394</v>
+      </c>
+      <c r="G281">
+        <v>65735</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" t="s">
+        <v>17</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>202305</v>
+      </c>
+      <c r="E282" t="s">
+        <v>157</v>
+      </c>
+      <c r="F282">
+        <v>121934</v>
+      </c>
+      <c r="G282">
+        <v>206658</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>202306</v>
+      </c>
+      <c r="E283" t="s">
+        <v>158</v>
+      </c>
+      <c r="F283">
+        <v>162761</v>
+      </c>
+      <c r="G283">
+        <v>266553</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" t="s">
+        <v>17</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>202307</v>
+      </c>
+      <c r="E284" t="s">
+        <v>159</v>
+      </c>
+      <c r="F284">
         <v>114262</v>
       </c>
-      <c r="G245">
-        <v>175876</v>
-      </c>
-      <c r="H245">
-        <v>0</v>
-      </c>
-      <c r="I245" t="s">
-        <v>174</v>
+      <c r="G284">
+        <v>180599</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
